--- a/biology/Botanique/Elaeodendron/Elaeodendron.xlsx
+++ b/biology/Botanique/Elaeodendron/Elaeodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeodendron est un genre de plantes à fleurs de la famille des Celastraceae, que l'on trouve aux Antilles, en Afrique, à Madagascar, à La Réunion et à Maurice, en Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Crocoxylon Eckl. &amp; Zeyh.
 Pseudocassine Bredell
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 août 2014) :
 Elaeodendron albens
 Elaeodendron alluaudianum
 Elaeodendron anjouanense
@@ -591,7 +607,7 @@
 Elaeodendron vitiense
 Elaeodendron xylocarpum
 Elaeodendron zeyheri
-Selon GRIN            (7 août 2014)[3] :
+Selon GRIN            (7 août 2014) :
 Elaeodendron australe Vent.
 Elaeodendron croceum (Thunb.) DC.
 Elaeodendron curtipendulum Endl.
@@ -599,11 +615,11 @@
 Elaeodendron orientale J. Jacq.
 Elaeodendron xylocarpum (Vent.) DC.
 Elaeodendron zeyheri Spreng. ex Turcz.
-Selon ITIS      (7 août 2014)[4] :
+Selon ITIS      (7 août 2014) :
 Elaeodendron xylocarpum (Vent.) DC.
-Selon The Plant List            (7 août 2014)[5] :
+Selon The Plant List            (7 août 2014) :
 Elaeodendron sphaerophyllum (Eckl. &amp; Zeyh.) PRESL
-Selon Tropicos                                           (7 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Elaeodendron aethiopicum (Thunb.) Oliv.
 Elaeodendron afzelii Loes.
 Elaeodendron albivenosum Chiov.
